--- a/data_and_results.xlsx
+++ b/data_and_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lbarberiscanoni/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lbarberiscanoni/Lorenzo/Github/blockchain-vs-tangle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61271F9-C8D1-5648-8A90-14BB2CF0046B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8553EECF-28B3-4D41-BC30-5691AAEB20A4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{C53FAEB5-165C-6E40-B6AF-CE34C221B3FC}"/>
   </bookViews>
@@ -16,68 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$G$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$G$11</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$F$10</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$F$11</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$G$10:$K$10</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$G$11:$K$11</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$G$9:$K$9</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$F$10</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$F$11</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$G$10:$K$10</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$G$11:$K$11</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$G$9:$K$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$H$10:$I$10</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$F$10</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$F$11</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$G$10:$K$10</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$G$11:$K$11</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$G$9:$K$9</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$G$10</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$G$11</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$H$10:$I$10</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$H$11:$I$11</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$H$9:$I$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$H$11:$I$11</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$F$10</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$F$11</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$G$10:$K$10</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$G$11:$K$11</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$G$9:$K$9</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$F$10</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$F$11</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$G$10:$K$10</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$G$11:$K$11</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$G$9:$K$9</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$H$9:$I$9</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$F$10</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$F$11</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$G$10:$K$10</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$G$11:$K$11</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$G$9:$K$9</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$F$10</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$F$11</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$G$10:$K$10</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$G$11:$K$11</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$G$9:$K$9</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$F$10</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$F$10</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$F$11</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$G$10:$K$10</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$G$11:$K$11</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$G$9:$K$9</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$F$10</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$F$11</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$G$10:$K$10</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$G$11:$K$11</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$G$9:$K$9</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$F$11</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$G$10:$K$10</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$G$11:$K$11</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$G$9:$K$9</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$F$10</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$F$11</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$F$9</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$G$10:$K$10</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$G$11:$K$11</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$G$9:$K$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -85,6 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -92,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
   <si>
     <t>Blockchain</t>
   </si>
@@ -148,9 +95,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,6 +379,65 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Transactions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -491,6 +504,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -609,7 +681,1748 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speed of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Transactions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Blockchain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$O$9:$S$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$10:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.37750094375235943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4294826364280651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.490004649000468</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>415.2479029980899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6707.8078883820763</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C0E-F740-B800-CC188283F39F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tangle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$O$9:$S$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$11:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.12457023269719468</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3487268018990073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.895733343411056</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>374.39161362785472</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4374.0705100166215</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C0E-F740-B800-CC188283F39F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1336494960"/>
+        <c:axId val="1336496640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1336494960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of Transactions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1336496640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1336496640"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1336494960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speed of Transactions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Blockchain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$V$9:$Z$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$10:$Z$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.13705388958938655</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9938327046284656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.479005299633101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>387.32667131458669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1996.1673586713512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-05E4-5647-8545-C2A767D4AEDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tangle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$V$9:$Z$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$11:$Z$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.1565946507826284E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46380468257207524</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7752058860898394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126.23393673155091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1088.0445663054359</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-05E4-5647-8545-C2A767D4AEDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1339956848"/>
+        <c:axId val="1334607232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1339956848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of Transactions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1334607232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1334607232"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time  (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1339956848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speed of Transactions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AB$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Blockchain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AC$9:$AG$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$10:$AG$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0302053958799013E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.912627044209295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200.75483819160041</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2616.5681092678842</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-40F4-D24F-B0B2-DA48AEE49D92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AB$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tangle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AC$9:$AG$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$11:$AG$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0365951713143128E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.709446476396792</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.113733010923035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>459.35194627419634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-40F4-D24F-B0B2-DA48AEE49D92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1340400720"/>
+        <c:axId val="1340402400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1340400720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of Transactions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1340402400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1340402400"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1340400720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1152,20 +2965,1529 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1185,6 +4507,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A33439-93D2-8A48-A576-B36FA539F6B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1578CB36-FB1F-B84E-A087-CBF0453D805B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3166D802-38B8-B244-9DC1-9308D308B39F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1490,15 +4920,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038737C7-8F22-844E-8E59-B6803BA5C7AC}">
-  <dimension ref="A9:K14"/>
+  <dimension ref="A7:AG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="P5" workbookViewId="0">
+      <selection activeCell="AB34" sqref="AB34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="15" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="33" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <v>50</v>
+      </c>
+      <c r="AB8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -1521,8 +4975,58 @@
       <c r="K9" s="1">
         <v>50000</v>
       </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2">
+        <v>50</v>
+      </c>
+      <c r="P9" s="2">
+        <v>500</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>5000</v>
+      </c>
+      <c r="R9" s="2">
+        <v>50000</v>
+      </c>
+      <c r="S9" s="2">
+        <v>500000</v>
+      </c>
+      <c r="T9" s="3"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2">
+        <v>50</v>
+      </c>
+      <c r="W9" s="2">
+        <v>500</v>
+      </c>
+      <c r="X9" s="2">
+        <v>5000</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>50000</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>500000</v>
+      </c>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2">
+        <v>50</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>500</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>50000</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>500000</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>50</v>
       </c>
@@ -1557,8 +5061,78 @@
         <f>B14</f>
         <v>3988.194942968812</v>
       </c>
+      <c r="N10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <f>O9 / 132.45</f>
+        <v>0.37750094375235943</v>
+      </c>
+      <c r="P10" s="2">
+        <f>P9 / 112.88</f>
+        <v>4.4294826364280651</v>
+      </c>
+      <c r="Q10" s="2">
+        <f>Q9 / 107.55</f>
+        <v>46.490004649000468</v>
+      </c>
+      <c r="R10" s="2">
+        <f>R9 /  120.41</f>
+        <v>415.2479029980899</v>
+      </c>
+      <c r="S10" s="2">
+        <f>S9 / 74.54</f>
+        <v>6707.8078883820763</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <f>V9 / 364.82</f>
+        <v>0.13705388958938655</v>
+      </c>
+      <c r="W10" s="2">
+        <f>W9 / 167.01</f>
+        <v>2.9938327046284656</v>
+      </c>
+      <c r="X10" s="2">
+        <f>X9 / 196.24</f>
+        <v>25.479005299633101</v>
+      </c>
+      <c r="Y10" s="2">
+        <f>Y9 / 129.09</f>
+        <v>387.32667131458669</v>
+      </c>
+      <c r="Z10" s="2">
+        <f>Z9 / 250.48</f>
+        <v>1996.1673586713512</v>
+      </c>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2">
+        <f>AD9 / 24628.05</f>
+        <v>2.0302053958799013E-2</v>
+      </c>
+      <c r="AE10" s="2">
+        <f>AE9 / 239.09</f>
+        <v>20.912627044209295</v>
+      </c>
+      <c r="AF10" s="2">
+        <f>AF9 / 249.06</f>
+        <v>200.75483819160041</v>
+      </c>
+      <c r="AG10" s="2">
+        <f>AG9 / 191.09</f>
+        <v>2616.5681092678842</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>500</v>
       </c>
@@ -1593,8 +5167,78 @@
         <f>C14</f>
         <v>485.41804201778575</v>
       </c>
+      <c r="N11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <f>O9 / 401.38</f>
+        <v>0.12457023269719468</v>
+      </c>
+      <c r="P11" s="2">
+        <f>P9 / 370.72</f>
+        <v>1.3487268018990073</v>
+      </c>
+      <c r="Q11" s="2">
+        <f>Q9 / 264.61</f>
+        <v>18.895733343411056</v>
+      </c>
+      <c r="R11" s="2">
+        <f>R9 /133.55</f>
+        <v>374.39161362785472</v>
+      </c>
+      <c r="S11" s="2">
+        <f>S9 / 114.31</f>
+        <v>4374.0705100166215</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V11" s="2">
+        <f>V9 / 2318.47</f>
+        <v>2.1565946507826284E-2</v>
+      </c>
+      <c r="W11" s="2">
+        <f>W9 / 1078.04</f>
+        <v>0.46380468257207524</v>
+      </c>
+      <c r="X11" s="2">
+        <f>X9 / 865.77</f>
+        <v>5.7752058860898394</v>
+      </c>
+      <c r="Y11" s="2">
+        <f>Y9 / 396.09</f>
+        <v>126.23393673155091</v>
+      </c>
+      <c r="Z11" s="2">
+        <f>Z9 / 459.54</f>
+        <v>1088.0445663054359</v>
+      </c>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
+        <f>AD9 / 24550.78</f>
+        <v>2.0365951713143128E-2</v>
+      </c>
+      <c r="AE11" s="2">
+        <f>AE9 / 1347.91</f>
+        <v>3.709446476396792</v>
+      </c>
+      <c r="AF11" s="2">
+        <f>AF9 / 959.44</f>
+        <v>52.113733010923035</v>
+      </c>
+      <c r="AG11" s="2">
+        <f>AG9 / 1088.49</f>
+        <v>459.35194627419634</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5000</v>
       </c>
@@ -1606,8 +5250,29 @@
         <f>A12/1313.58</f>
         <v>3.8063916929307697</v>
       </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>50000</v>
       </c>
@@ -1620,7 +5285,7 @@
         <v>47.329660551674522</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>500000</v>
       </c>
@@ -1632,6 +5297,206 @@
         <f>A14/1030.04</f>
         <v>485.41804201778575</v>
       </c>
+    </row>
+    <row r="27" spans="5:27" x14ac:dyDescent="0.2">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+    </row>
+    <row r="28" spans="5:27" x14ac:dyDescent="0.2">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+    </row>
+    <row r="29" spans="5:27" x14ac:dyDescent="0.2">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+    </row>
+    <row r="30" spans="5:27" x14ac:dyDescent="0.2">
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="3"/>
+    </row>
+    <row r="31" spans="5:27" x14ac:dyDescent="0.2">
+      <c r="E31" s="3"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="3"/>
+    </row>
+    <row r="32" spans="5:27" x14ac:dyDescent="0.2">
+      <c r="E32" s="3"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="3"/>
+    </row>
+    <row r="33" spans="5:27" x14ac:dyDescent="0.2">
+      <c r="E33" s="3"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="3"/>
+    </row>
+    <row r="34" spans="5:27" x14ac:dyDescent="0.2">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
